--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_hotel_gaming.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_hotel_gaming.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.129</v>
+        <v>-0.252</v>
       </c>
       <c r="G2">
-        <v>0.0375609756097561</v>
+        <v>0.1003921568627451</v>
       </c>
       <c r="H2">
-        <v>0.0375609756097561</v>
+        <v>0.1003921568627451</v>
       </c>
       <c r="I2">
-        <v>-0.21836137891455</v>
+        <v>-0.3176470588235294</v>
       </c>
       <c r="J2">
-        <v>-0.21836137891455</v>
+        <v>-0.3176470588235294</v>
       </c>
       <c r="K2">
-        <v>-0.834</v>
+        <v>-4.54</v>
       </c>
       <c r="L2">
-        <v>-0.05085365853658537</v>
+        <v>-0.5934640522875817</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.826</v>
+        <v>1.06</v>
       </c>
       <c r="V2">
-        <v>0.1204081632653061</v>
+        <v>0.1284848484848485</v>
       </c>
       <c r="W2">
-        <v>-0.7008403361344537</v>
+        <v>-14.05572755417957</v>
       </c>
       <c r="X2">
-        <v>0.519566332843317</v>
+        <v>0.1817389212981077</v>
       </c>
       <c r="Y2">
-        <v>-1.220406668977771</v>
+        <v>-14.23746647547767</v>
       </c>
       <c r="Z2">
-        <v>0.2260023003445087</v>
+        <v>0.2354063452010955</v>
       </c>
       <c r="AA2">
-        <v>-0.04935017394108721</v>
+        <v>-0.07477613318152446</v>
       </c>
       <c r="AB2">
-        <v>0.08085921849922505</v>
+        <v>0.07348724733250468</v>
       </c>
       <c r="AC2">
-        <v>-0.1302093924403123</v>
+        <v>-0.1482633805140292</v>
       </c>
       <c r="AD2">
-        <v>33</v>
+        <v>23.4</v>
       </c>
       <c r="AE2">
-        <v>46.6056330709931</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>79.60563307099309</v>
+        <v>23.4</v>
       </c>
       <c r="AG2">
-        <v>78.7796330709931</v>
+        <v>22.34</v>
       </c>
       <c r="AH2">
-        <v>0.9206621202395227</v>
+        <v>0.7393364928909952</v>
       </c>
       <c r="AI2">
-        <v>0.9959588949843156</v>
+        <v>0.9983361064891846</v>
       </c>
       <c r="AJ2">
-        <v>0.9198969010725065</v>
+        <v>0.7303040209218699</v>
       </c>
       <c r="AK2">
-        <v>0.9959166972392676</v>
+        <v>0.9982572947852897</v>
       </c>
       <c r="AL2">
-        <v>1.04</v>
+        <v>0.728</v>
       </c>
       <c r="AM2">
-        <v>1.021</v>
+        <v>0.726</v>
       </c>
       <c r="AN2">
-        <v>3.982621288921072</v>
+        <v>-25.51799345692475</v>
       </c>
       <c r="AO2">
-        <v>-1.865384615384615</v>
+        <v>-3.337912087912088</v>
       </c>
       <c r="AP2">
-        <v>9.507558903088716</v>
+        <v>-24.36205016357688</v>
       </c>
       <c r="AQ2">
-        <v>-1.900097943192948</v>
+        <v>-3.347107438016529</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.129</v>
+        <v>-0.252</v>
       </c>
       <c r="G3">
-        <v>0.0375609756097561</v>
+        <v>0.1003921568627451</v>
       </c>
       <c r="H3">
-        <v>0.0375609756097561</v>
+        <v>0.1003921568627451</v>
       </c>
       <c r="I3">
-        <v>-0.21836137891455</v>
+        <v>-0.3176470588235294</v>
       </c>
       <c r="J3">
-        <v>-0.21836137891455</v>
+        <v>-0.3176470588235294</v>
       </c>
       <c r="K3">
-        <v>-0.834</v>
+        <v>-4.54</v>
       </c>
       <c r="L3">
-        <v>-0.05085365853658537</v>
+        <v>-0.5934640522875817</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.826</v>
+        <v>1.06</v>
       </c>
       <c r="V3">
-        <v>0.1204081632653061</v>
+        <v>0.1284848484848485</v>
       </c>
       <c r="W3">
-        <v>-0.7008403361344537</v>
+        <v>-14.05572755417957</v>
       </c>
       <c r="X3">
-        <v>0.519566332843317</v>
+        <v>0.1817389212981077</v>
       </c>
       <c r="Y3">
-        <v>-1.220406668977771</v>
+        <v>-14.23746647547767</v>
       </c>
       <c r="Z3">
-        <v>0.2260023003445087</v>
+        <v>0.2354063452010955</v>
       </c>
       <c r="AA3">
-        <v>-0.04935017394108721</v>
+        <v>-0.07477613318152446</v>
       </c>
       <c r="AB3">
-        <v>0.08085921849922505</v>
+        <v>0.07348724733250468</v>
       </c>
       <c r="AC3">
-        <v>-0.1302093924403123</v>
+        <v>-0.1482633805140292</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>23.4</v>
       </c>
       <c r="AE3">
-        <v>46.6056330709931</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>79.60563307099309</v>
+        <v>23.4</v>
       </c>
       <c r="AG3">
-        <v>78.7796330709931</v>
+        <v>22.34</v>
       </c>
       <c r="AH3">
-        <v>0.9206621202395227</v>
+        <v>0.7393364928909952</v>
       </c>
       <c r="AI3">
-        <v>0.9959588949843156</v>
+        <v>0.9983361064891846</v>
       </c>
       <c r="AJ3">
-        <v>0.9198969010725065</v>
+        <v>0.7303040209218699</v>
       </c>
       <c r="AK3">
-        <v>0.9959166972392676</v>
+        <v>0.9982572947852897</v>
       </c>
       <c r="AL3">
-        <v>1.04</v>
+        <v>0.728</v>
       </c>
       <c r="AM3">
-        <v>1.021</v>
+        <v>0.726</v>
       </c>
       <c r="AN3">
-        <v>3.982621288921072</v>
+        <v>-25.51799345692475</v>
       </c>
       <c r="AO3">
-        <v>-1.865384615384615</v>
+        <v>-3.337912087912088</v>
       </c>
       <c r="AP3">
-        <v>9.507558903088716</v>
+        <v>-24.36205016357688</v>
       </c>
       <c r="AQ3">
-        <v>-1.900097943192948</v>
+        <v>-3.347107438016529</v>
       </c>
     </row>
   </sheetData>
